--- a/Companies/Finance - NBFC/Bajaj Finance Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
+++ b/Companies/Finance - NBFC/Bajaj Finance Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,15 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '22</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '22</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '22</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '23</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '23</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '23</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '22</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '22</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '22</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>7,843.23</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8,327.28</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8,953.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9,455.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>10,441.93</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>9,455.22</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8,953.86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>8,327.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7,843.23</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>10441.93</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>7843.23</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>9004.304</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>301.45</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>275.35</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>259.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>260.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>222.17</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>260.97</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>259.67</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>275.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>301.45</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>301.45</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>222.17</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>263.922</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>8,144.68</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8,602.63</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9,213.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9,716.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>10,664.10</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>9,716.19</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9,213.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>8,602.63</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8,144.68</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>10664.1</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>8144.68</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>9268.226000000001</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>1,058.62</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1,124.74</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,163.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1,216.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>1,366.31</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1,216.83</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1,163.87</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1,124.74</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1,058.62</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1366.31</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>1058.62</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>1186.074</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>102.11</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>110.82</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>108.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>122.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>143.32</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>122.53</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>108.31</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>110.82</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>102.11</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>143.32</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>102.11</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>117.418</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>748.04</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>704.86</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>810.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>802.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>988.61</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>802.59</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>810.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>704.86</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>748.04</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>988.61</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>704.86</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>811.014</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1,055.30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,121.72</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,135.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,132.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,149.88</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1,132.18</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,135.29</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,121.72</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,055.30</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1149.88</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1055.3</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1118.874</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>5,180.61</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5,540.49</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5,995.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6,442.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>7,015.98</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>6,442.06</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5,995.09</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5,540.49</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5,180.61</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>7015.98</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>5180.61</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>6034.846</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1.59</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1.974</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>5,182.28</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5,544.12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5,996.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6,443.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>7,017.57</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>6,443.96</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5,996.17</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5,544.12</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5,182.28</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>7017.57</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>5182.28</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>6036.82</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>2,005.99</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2,208.93</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2,455.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2,614.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>3,013.06</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2,614.21</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2,455.89</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2,208.93</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2,005.99</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>3013.06</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>2005.99</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>2459.616</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>3,176.29</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3,335.19</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,540.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3,829.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>4,004.51</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3,829.75</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3,540.28</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3,335.19</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3,176.29</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>4004.51</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>3176.29</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>3577.204</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>3,176.29</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3,335.19</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3,540.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3,829.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>4,004.51</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3,829.75</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3,540.28</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3,335.19</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3,176.29</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>4004.51</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>3176.29</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>3577.204</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>820.37</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>862.95</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>916.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>992.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1,045.45</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>992.39</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>916.06</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>862.95</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>820.37</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>1045.45</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>820.37</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>927.4440000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>2,355.92</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2,472.24</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,624.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2,837.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2,959.06</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2,837.36</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,624.22</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2,472.24</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2,355.92</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>2959.06</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>2355.92</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2649.76</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>2,355.92</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2,472.24</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2,624.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2,837.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>2,959.06</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2,837.36</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2,624.22</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2,472.24</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2,355.92</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>2959.06</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>2355.92</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>2649.76</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>120.73</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>120.82</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>120.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>120.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>121.03</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>120.89</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>120.86</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>120.82</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>120.73</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>121.03</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>120.73</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>120.866</v>
       </c>
     </row>
     <row r="21"/>
@@ -1217,37 +1041,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>39.04</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>40.94</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>43.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>48.93</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>46.95</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>43.43</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>40.94</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>39.04</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>48.93</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>39.04</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>43.858</v>
       </c>
     </row>
     <row r="24">
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>40.73</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>48.73</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>46.74</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>43.22</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>40.73</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>38.82</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>48.73</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>38.82</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>43.648</v>
       </c>
     </row>
     <row r="25"/>
@@ -1307,37 +1113,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>39.04</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40.94</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>43.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>48.93</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>46.95</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>43.43</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>40.94</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>39.04</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>48.93</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>39.04</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>43.858</v>
       </c>
     </row>
     <row r="28">
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40.73</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>48.73</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>46.74</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>43.22</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>40.73</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>38.82</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>48.73</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>38.82</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>43.648</v>
       </c>
     </row>
     <row r="29"/>
